--- a/outputs-HGR-r202/train-g__CAG-279_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__CAG-279_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="655">
   <si>
     <t>Row</t>
   </si>
@@ -1595,6 +1596,393 @@
   </si>
   <si>
     <t>label_UMGS1912_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS360_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS360_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS360_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS360_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS360_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS360_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS366_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS410_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS659_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS659_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS659_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS659_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS659_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS659_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS659_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS659_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS659_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS659_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS659_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS659_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS659_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_113.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_117.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_119.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_122.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_124.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_129.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_130.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_135.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1126_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_129.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1257_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1912_95.fasta</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +2003,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1631,11 +2019,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1645,6 +2035,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18374,4 +18766,4185 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J130"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="22.85546875" customWidth="true"/>
+    <col min="9" max="9" width="10.28515625" customWidth="true"/>
+    <col min="10" max="10" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B2">
+        <v>0.89710485655717642</v>
+      </c>
+      <c r="C2">
+        <v>4.3577383510848255e-05</v>
+      </c>
+      <c r="D2">
+        <v>9.5870749845779356e-05</v>
+      </c>
+      <c r="E2">
+        <v>0.07757046250646929</v>
+      </c>
+      <c r="F2">
+        <v>0.022359442171097497</v>
+      </c>
+      <c r="G2">
+        <v>0.0020624669918378495</v>
+      </c>
+      <c r="H2">
+        <v>0.00076332364006237365</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B3">
+        <v>0.013280569256926498</v>
+      </c>
+      <c r="C3">
+        <v>0.2064015458919361</v>
+      </c>
+      <c r="D3">
+        <v>0.0018723080506743343</v>
+      </c>
+      <c r="E3">
+        <v>0.13878568271454592</v>
+      </c>
+      <c r="F3">
+        <v>0.16405780144105794</v>
+      </c>
+      <c r="G3">
+        <v>0.068704844151593267</v>
+      </c>
+      <c r="H3">
+        <v>0.40689724849326586</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B4">
+        <v>0.0010874123803916059</v>
+      </c>
+      <c r="C4">
+        <v>0.0033211007614179795</v>
+      </c>
+      <c r="D4">
+        <v>2.0425296231677451e-05</v>
+      </c>
+      <c r="E4">
+        <v>0.02521713257215857</v>
+      </c>
+      <c r="F4">
+        <v>0.0064019205879415576</v>
+      </c>
+      <c r="G4">
+        <v>0.058217560873227249</v>
+      </c>
+      <c r="H4">
+        <v>0.90573444752863141</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B5">
+        <v>0.92966796176762645</v>
+      </c>
+      <c r="C5">
+        <v>2.8010383642290361e-05</v>
+      </c>
+      <c r="D5">
+        <v>1.4201851713958472e-05</v>
+      </c>
+      <c r="E5">
+        <v>0.061982113366032016</v>
+      </c>
+      <c r="F5">
+        <v>0.0070068234705227004</v>
+      </c>
+      <c r="G5">
+        <v>0.0011683217309925646</v>
+      </c>
+      <c r="H5">
+        <v>0.00013256742946988762</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B6">
+        <v>0.92538399059099774</v>
+      </c>
+      <c r="C6">
+        <v>8.3972925909714665e-05</v>
+      </c>
+      <c r="D6">
+        <v>1.6811874038901414e-05</v>
+      </c>
+      <c r="E6">
+        <v>0.068344652946641701</v>
+      </c>
+      <c r="F6">
+        <v>0.0056384672308415675</v>
+      </c>
+      <c r="G6">
+        <v>0.00037894275971876018</v>
+      </c>
+      <c r="H6">
+        <v>0.00015316167185146711</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7">
+        <v>0.91091337586654186</v>
+      </c>
+      <c r="C7">
+        <v>8.003939681763566e-05</v>
+      </c>
+      <c r="D7">
+        <v>1.8098996838372442e-05</v>
+      </c>
+      <c r="E7">
+        <v>0.069579951933722115</v>
+      </c>
+      <c r="F7">
+        <v>0.016090937689303395</v>
+      </c>
+      <c r="G7">
+        <v>0.0030876340932707745</v>
+      </c>
+      <c r="H7">
+        <v>0.00022996202350580438</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B8">
+        <v>0.00021299408653900335</v>
+      </c>
+      <c r="C8">
+        <v>0.89699254520878102</v>
+      </c>
+      <c r="D8">
+        <v>2.0612053539223249e-08</v>
+      </c>
+      <c r="E8">
+        <v>0.03116589951572607</v>
+      </c>
+      <c r="F8">
+        <v>0.061007947373226012</v>
+      </c>
+      <c r="G8">
+        <v>0.010620252518812623</v>
+      </c>
+      <c r="H8">
+        <v>3.406848618175821e-07</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B9">
+        <v>0.0035460961379555145</v>
+      </c>
+      <c r="C9">
+        <v>0.97503851868317726</v>
+      </c>
+      <c r="D9">
+        <v>8.1832399384944018e-07</v>
+      </c>
+      <c r="E9">
+        <v>0.010663959119287329</v>
+      </c>
+      <c r="F9">
+        <v>0.0098997993030157643</v>
+      </c>
+      <c r="G9">
+        <v>0.00023374407930308792</v>
+      </c>
+      <c r="H9">
+        <v>0.0006170643532671233</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B10">
+        <v>0.0038961333266462239</v>
+      </c>
+      <c r="C10">
+        <v>0.96563866900585515</v>
+      </c>
+      <c r="D10">
+        <v>3.8750054938749193e-07</v>
+      </c>
+      <c r="E10">
+        <v>0.014648324047111456</v>
+      </c>
+      <c r="F10">
+        <v>0.014937582071616322</v>
+      </c>
+      <c r="G10">
+        <v>0.00015529259508832271</v>
+      </c>
+      <c r="H10">
+        <v>0.00072361145313313397</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B11">
+        <v>0.00099359941206115208</v>
+      </c>
+      <c r="C11">
+        <v>0.94769891931327666</v>
+      </c>
+      <c r="D11">
+        <v>4.308381279313195e-08</v>
+      </c>
+      <c r="E11">
+        <v>0.011801941622521992</v>
+      </c>
+      <c r="F11">
+        <v>0.039118067486678301</v>
+      </c>
+      <c r="G11">
+        <v>0.00015456399666431025</v>
+      </c>
+      <c r="H11">
+        <v>0.00023286508498465247</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B12">
+        <v>0.0019431990031625629</v>
+      </c>
+      <c r="C12">
+        <v>0.95543507865339428</v>
+      </c>
+      <c r="D12">
+        <v>1.2564909345432746e-07</v>
+      </c>
+      <c r="E12">
+        <v>0.020793161796352041</v>
+      </c>
+      <c r="F12">
+        <v>0.021332228136980168</v>
+      </c>
+      <c r="G12">
+        <v>5.7266382158143615e-05</v>
+      </c>
+      <c r="H12">
+        <v>0.00043894037885957904</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B13">
+        <v>0.0016964008233841055</v>
+      </c>
+      <c r="C13">
+        <v>0.97219631388530803</v>
+      </c>
+      <c r="D13">
+        <v>1.9727701777063545e-07</v>
+      </c>
+      <c r="E13">
+        <v>0.0056542703736669848</v>
+      </c>
+      <c r="F13">
+        <v>0.020155649989407387</v>
+      </c>
+      <c r="G13">
+        <v>5.4970618934866775e-05</v>
+      </c>
+      <c r="H13">
+        <v>0.00024219703228094011</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B14">
+        <v>0.0029914505006415635</v>
+      </c>
+      <c r="C14">
+        <v>0.97332943491214252</v>
+      </c>
+      <c r="D14">
+        <v>3.2273568482938698e-07</v>
+      </c>
+      <c r="E14">
+        <v>0.021490739535831405</v>
+      </c>
+      <c r="F14">
+        <v>0.0019963667176598602</v>
+      </c>
+      <c r="G14">
+        <v>9.1348753851510804e-05</v>
+      </c>
+      <c r="H14">
+        <v>0.00010033684418824356</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B15">
+        <v>0.00074301197922439148</v>
+      </c>
+      <c r="C15">
+        <v>0.94887266849172425</v>
+      </c>
+      <c r="D15">
+        <v>4.3673012840712845e-08</v>
+      </c>
+      <c r="E15">
+        <v>0.020410104142282212</v>
+      </c>
+      <c r="F15">
+        <v>0.029373922743302139</v>
+      </c>
+      <c r="G15">
+        <v>0.00054636763028421595</v>
+      </c>
+      <c r="H15">
+        <v>5.3881340169876128e-05</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16">
+        <v>0.0032163085823496088</v>
+      </c>
+      <c r="C16">
+        <v>0.98188228258089993</v>
+      </c>
+      <c r="D16">
+        <v>2.2287122812768822e-07</v>
+      </c>
+      <c r="E16">
+        <v>0.010185851183188469</v>
+      </c>
+      <c r="F16">
+        <v>0.0044841666201499604</v>
+      </c>
+      <c r="G16">
+        <v>2.5631979655667365e-05</v>
+      </c>
+      <c r="H16">
+        <v>0.00020553618252828709</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B17">
+        <v>0.0022525546201904397</v>
+      </c>
+      <c r="C17">
+        <v>0.97039500664273981</v>
+      </c>
+      <c r="D17">
+        <v>3.7334033689568798e-07</v>
+      </c>
+      <c r="E17">
+        <v>0.020358252326440181</v>
+      </c>
+      <c r="F17">
+        <v>0.0061539999581350672</v>
+      </c>
+      <c r="G17">
+        <v>0.00048078553172311228</v>
+      </c>
+      <c r="H17">
+        <v>0.00035902758043430131</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B18">
+        <v>0.0025695356512293022</v>
+      </c>
+      <c r="C18">
+        <v>0.88945635273836254</v>
+      </c>
+      <c r="D18">
+        <v>2.635670836638674e-06</v>
+      </c>
+      <c r="E18">
+        <v>0.023162409031792973</v>
+      </c>
+      <c r="F18">
+        <v>0.082415819761217368</v>
+      </c>
+      <c r="G18">
+        <v>0.0022498381127297974</v>
+      </c>
+      <c r="H18">
+        <v>0.00014340903383137964</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B19">
+        <v>0.0052588390263398586</v>
+      </c>
+      <c r="C19">
+        <v>0.97681192298072506</v>
+      </c>
+      <c r="D19">
+        <v>5.6050240991619628e-07</v>
+      </c>
+      <c r="E19">
+        <v>0.017154689719737985</v>
+      </c>
+      <c r="F19">
+        <v>0.00062930551565683779</v>
+      </c>
+      <c r="G19">
+        <v>1.25801469355473e-05</v>
+      </c>
+      <c r="H19">
+        <v>0.00013210210819484476</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B20">
+        <v>0.0029600495155661169</v>
+      </c>
+      <c r="C20">
+        <v>0.91766574142774582</v>
+      </c>
+      <c r="D20">
+        <v>1.9603610224173358e-06</v>
+      </c>
+      <c r="E20">
+        <v>0.017050782230136109</v>
+      </c>
+      <c r="F20">
+        <v>0.060919990451455422</v>
+      </c>
+      <c r="G20">
+        <v>0.0012298386493727264</v>
+      </c>
+      <c r="H20">
+        <v>0.00017163736470132991</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B21">
+        <v>0.0028480740375575499</v>
+      </c>
+      <c r="C21">
+        <v>0.96453305149483226</v>
+      </c>
+      <c r="D21">
+        <v>8.8331194622905889e-07</v>
+      </c>
+      <c r="E21">
+        <v>0.028878144960405489</v>
+      </c>
+      <c r="F21">
+        <v>0.0018096574483776919</v>
+      </c>
+      <c r="G21">
+        <v>0.0015666838904391574</v>
+      </c>
+      <c r="H21">
+        <v>0.00036350485644160878</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B22">
+        <v>0.00084464543968720037</v>
+      </c>
+      <c r="C22">
+        <v>0.92130075290730917</v>
+      </c>
+      <c r="D22">
+        <v>1.4225955232484793e-07</v>
+      </c>
+      <c r="E22">
+        <v>0.065870471788574123</v>
+      </c>
+      <c r="F22">
+        <v>0.0053746389954979967</v>
+      </c>
+      <c r="G22">
+        <v>0.0060680811572958035</v>
+      </c>
+      <c r="H22">
+        <v>0.00054126745208336804</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B23">
+        <v>0.0026876031053815422</v>
+      </c>
+      <c r="C23">
+        <v>0.89201716557988764</v>
+      </c>
+      <c r="D23">
+        <v>1.8309886987120633e-06</v>
+      </c>
+      <c r="E23">
+        <v>0.036837936322225158</v>
+      </c>
+      <c r="F23">
+        <v>0.058037265488382991</v>
+      </c>
+      <c r="G23">
+        <v>0.0054464368754332682</v>
+      </c>
+      <c r="H23">
+        <v>0.0049717616399906333</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B24">
+        <v>0.0065653864556756841</v>
+      </c>
+      <c r="C24">
+        <v>0.60702082257685352</v>
+      </c>
+      <c r="D24">
+        <v>1.1453867400803145e-05</v>
+      </c>
+      <c r="E24">
+        <v>0.050848982956588247</v>
+      </c>
+      <c r="F24">
+        <v>0.012239227329326804</v>
+      </c>
+      <c r="G24">
+        <v>0.027503840030034463</v>
+      </c>
+      <c r="H24">
+        <v>0.29581028678412041</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B25">
+        <v>0.0026542861459909178</v>
+      </c>
+      <c r="C25">
+        <v>0.93354187332690652</v>
+      </c>
+      <c r="D25">
+        <v>8.7301125034348487e-07</v>
+      </c>
+      <c r="E25">
+        <v>0.057068395165868389</v>
+      </c>
+      <c r="F25">
+        <v>0.0020193916886761172</v>
+      </c>
+      <c r="G25">
+        <v>0.004211184529717465</v>
+      </c>
+      <c r="H25">
+        <v>0.00050399613159024948</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B26">
+        <v>0.0074570589424282473</v>
+      </c>
+      <c r="C26">
+        <v>0.93887958946424188</v>
+      </c>
+      <c r="D26">
+        <v>8.2314354794186792e-06</v>
+      </c>
+      <c r="E26">
+        <v>0.01445202266693937</v>
+      </c>
+      <c r="F26">
+        <v>0.00072131017564737107</v>
+      </c>
+      <c r="G26">
+        <v>0.033391945437945506</v>
+      </c>
+      <c r="H26">
+        <v>0.0050898418773182895</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B27">
+        <v>0.01340374267940837</v>
+      </c>
+      <c r="C27">
+        <v>0.94211492703900912</v>
+      </c>
+      <c r="D27">
+        <v>1.0835695940679348e-05</v>
+      </c>
+      <c r="E27">
+        <v>0.037268927673510574</v>
+      </c>
+      <c r="F27">
+        <v>8.8820558897383282e-05</v>
+      </c>
+      <c r="G27">
+        <v>0.0070890362384488162</v>
+      </c>
+      <c r="H27">
+        <v>2.3710114785016709e-05</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B28">
+        <v>0.0031946820277062608</v>
+      </c>
+      <c r="C28">
+        <v>0.98176799455237573</v>
+      </c>
+      <c r="D28">
+        <v>2.6779360859632655e-07</v>
+      </c>
+      <c r="E28">
+        <v>0.010698241851995539</v>
+      </c>
+      <c r="F28">
+        <v>0.0041031940326746652</v>
+      </c>
+      <c r="G28">
+        <v>3.4803740679601066e-05</v>
+      </c>
+      <c r="H28">
+        <v>0.00020081600095962421</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B29">
+        <v>0.0069793183256575859</v>
+      </c>
+      <c r="C29">
+        <v>1.2659284939830493e-05</v>
+      </c>
+      <c r="D29">
+        <v>0.8879971887849416</v>
+      </c>
+      <c r="E29">
+        <v>0.093231373875639748</v>
+      </c>
+      <c r="F29">
+        <v>0.011678362358464922</v>
+      </c>
+      <c r="G29">
+        <v>0.00010105656114449567</v>
+      </c>
+      <c r="H29">
+        <v>4.0809211844999065e-08</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30">
+        <v>0.00078065162053883575</v>
+      </c>
+      <c r="C30">
+        <v>6.5760944765115526e-05</v>
+      </c>
+      <c r="D30">
+        <v>0.90669222396761984</v>
+      </c>
+      <c r="E30">
+        <v>0.068594560574640778</v>
+      </c>
+      <c r="F30">
+        <v>0.023859924223928183</v>
+      </c>
+      <c r="G30">
+        <v>6.7925140747493741e-06</v>
+      </c>
+      <c r="H30">
+        <v>8.6154432384782263e-08</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B31">
+        <v>0.00029515929409253106</v>
+      </c>
+      <c r="C31">
+        <v>0.00027893166752230073</v>
+      </c>
+      <c r="D31">
+        <v>0.93122746896391839</v>
+      </c>
+      <c r="E31">
+        <v>0.032623864162206147</v>
+      </c>
+      <c r="F31">
+        <v>0.034963965362465946</v>
+      </c>
+      <c r="G31">
+        <v>0.00061054311272689267</v>
+      </c>
+      <c r="H31">
+        <v>6.7437067798730908e-08</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B32">
+        <v>0.0008181121217040614</v>
+      </c>
+      <c r="C32">
+        <v>1.1695050196243044e-05</v>
+      </c>
+      <c r="D32">
+        <v>0.91434879671493963</v>
+      </c>
+      <c r="E32">
+        <v>0.058408019765238912</v>
+      </c>
+      <c r="F32">
+        <v>0.026371227703602913</v>
+      </c>
+      <c r="G32">
+        <v>4.1972456094020445e-05</v>
+      </c>
+      <c r="H32">
+        <v>1.7618822427826415e-07</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B33">
+        <v>0.00076357714921436741</v>
+      </c>
+      <c r="C33">
+        <v>1.3503895635235841e-05</v>
+      </c>
+      <c r="D33">
+        <v>0.89513692236755305</v>
+      </c>
+      <c r="E33">
+        <v>0.05908898277460805</v>
+      </c>
+      <c r="F33">
+        <v>0.044993232823875705</v>
+      </c>
+      <c r="G33">
+        <v>3.431915789660131e-06</v>
+      </c>
+      <c r="H33">
+        <v>3.4907332382128338e-07</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B34">
+        <v>0.00014116201187280546</v>
+      </c>
+      <c r="C34">
+        <v>3.5419684937371198e-05</v>
+      </c>
+      <c r="D34">
+        <v>0.93661573409429844</v>
+      </c>
+      <c r="E34">
+        <v>0.036218779545238437</v>
+      </c>
+      <c r="F34">
+        <v>0.02667476410955167</v>
+      </c>
+      <c r="G34">
+        <v>0.0003141035292892815</v>
+      </c>
+      <c r="H34">
+        <v>3.7024812034381321e-08</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B35">
+        <v>0.0012145706901612223</v>
+      </c>
+      <c r="C35">
+        <v>4.2282028479589766e-05</v>
+      </c>
+      <c r="D35">
+        <v>0.8804234092676585</v>
+      </c>
+      <c r="E35">
+        <v>0.034320607254094047</v>
+      </c>
+      <c r="F35">
+        <v>0.083168697453504942</v>
+      </c>
+      <c r="G35">
+        <v>0.00082934820807905544</v>
+      </c>
+      <c r="H35">
+        <v>1.085098022678492e-06</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B36">
+        <v>0.0013500440181335031</v>
+      </c>
+      <c r="C36">
+        <v>2.3365601902621912e-05</v>
+      </c>
+      <c r="D36">
+        <v>0.90119547720419113</v>
+      </c>
+      <c r="E36">
+        <v>0.065550038999528076</v>
+      </c>
+      <c r="F36">
+        <v>0.031732421027890839</v>
+      </c>
+      <c r="G36">
+        <v>0.00014731198394167617</v>
+      </c>
+      <c r="H36">
+        <v>1.3411644121197093e-06</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B37">
+        <v>0.0017212754395688867</v>
+      </c>
+      <c r="C37">
+        <v>0.00015567271282593365</v>
+      </c>
+      <c r="D37">
+        <v>0.86696035556144069</v>
+      </c>
+      <c r="E37">
+        <v>0.048445413669259335</v>
+      </c>
+      <c r="F37">
+        <v>0.075276779553715423</v>
+      </c>
+      <c r="G37">
+        <v>0.0074345878602349981</v>
+      </c>
+      <c r="H37">
+        <v>5.9152029547874281e-06</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B38">
+        <v>0.0010047595739692515</v>
+      </c>
+      <c r="C38">
+        <v>6.7469073211730814e-05</v>
+      </c>
+      <c r="D38">
+        <v>0.91808209736740365</v>
+      </c>
+      <c r="E38">
+        <v>0.029642106264670991</v>
+      </c>
+      <c r="F38">
+        <v>0.048206787921662581</v>
+      </c>
+      <c r="G38">
+        <v>0.0029938409550660928</v>
+      </c>
+      <c r="H38">
+        <v>2.9388440157421044e-06</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B39">
+        <v>0.0050238666716607133</v>
+      </c>
+      <c r="C39">
+        <v>8.5758075661413391e-06</v>
+      </c>
+      <c r="D39">
+        <v>0.85645535395169015</v>
+      </c>
+      <c r="E39">
+        <v>0.09684946380018998</v>
+      </c>
+      <c r="F39">
+        <v>0.041312435865019495</v>
+      </c>
+      <c r="G39">
+        <v>0.00028434205790971818</v>
+      </c>
+      <c r="H39">
+        <v>6.5961845963790068e-05</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B40">
+        <v>0.0011506631586156932</v>
+      </c>
+      <c r="C40">
+        <v>9.2038683984048994e-05</v>
+      </c>
+      <c r="D40">
+        <v>0.90176167821482545</v>
+      </c>
+      <c r="E40">
+        <v>0.061343153686124641</v>
+      </c>
+      <c r="F40">
+        <v>0.035514360633506714</v>
+      </c>
+      <c r="G40">
+        <v>0.00013189858226997126</v>
+      </c>
+      <c r="H40">
+        <v>6.207040673564664e-06</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B41">
+        <v>0.00016080988138496586</v>
+      </c>
+      <c r="C41">
+        <v>0.00015137873662675173</v>
+      </c>
+      <c r="D41">
+        <v>0.93985974381930792</v>
+      </c>
+      <c r="E41">
+        <v>0.023619612810051614</v>
+      </c>
+      <c r="F41">
+        <v>0.035718471366513127</v>
+      </c>
+      <c r="G41">
+        <v>0.00048985141028781492</v>
+      </c>
+      <c r="H41">
+        <v>1.3197582782503066e-07</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B42">
+        <v>0.00054358983485889765</v>
+      </c>
+      <c r="C42">
+        <v>1.6241742774284654e-05</v>
+      </c>
+      <c r="D42">
+        <v>0.91298574396077936</v>
+      </c>
+      <c r="E42">
+        <v>0.032464112592806155</v>
+      </c>
+      <c r="F42">
+        <v>0.051022968676093246</v>
+      </c>
+      <c r="G42">
+        <v>0.00296648191036995</v>
+      </c>
+      <c r="H42">
+        <v>8.6128231813762945e-07</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B43">
+        <v>0.00044949567687506268</v>
+      </c>
+      <c r="C43">
+        <v>3.3466368401311208e-05</v>
+      </c>
+      <c r="D43">
+        <v>0.87907291009050037</v>
+      </c>
+      <c r="E43">
+        <v>0.059625740940096282</v>
+      </c>
+      <c r="F43">
+        <v>0.060572480442846473</v>
+      </c>
+      <c r="G43">
+        <v>0.00023947321508629871</v>
+      </c>
+      <c r="H43">
+        <v>6.4332661942265126e-06</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B44">
+        <v>0.00058179361275760805</v>
+      </c>
+      <c r="C44">
+        <v>4.6678423817732458e-05</v>
+      </c>
+      <c r="D44">
+        <v>0.91421748170488493</v>
+      </c>
+      <c r="E44">
+        <v>0.026042837338875059</v>
+      </c>
+      <c r="F44">
+        <v>0.054611505802294048</v>
+      </c>
+      <c r="G44">
+        <v>0.0044836013936062243</v>
+      </c>
+      <c r="H44">
+        <v>1.6101723764471313e-05</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B45">
+        <v>0.00028992862687156866</v>
+      </c>
+      <c r="C45">
+        <v>1.3432923900770082e-05</v>
+      </c>
+      <c r="D45">
+        <v>0.80201443121010396</v>
+      </c>
+      <c r="E45">
+        <v>0.051328092982106222</v>
+      </c>
+      <c r="F45">
+        <v>0.14487275242723582</v>
+      </c>
+      <c r="G45">
+        <v>0.0013861299300482531</v>
+      </c>
+      <c r="H45">
+        <v>9.5231899733525704e-05</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B46">
+        <v>8.5201906270425241e-05</v>
+      </c>
+      <c r="C46">
+        <v>1.8491239901760277e-09</v>
+      </c>
+      <c r="D46">
+        <v>0.86092322078211581</v>
+      </c>
+      <c r="E46">
+        <v>0.018929301428855135</v>
+      </c>
+      <c r="F46">
+        <v>0.025465184877744785</v>
+      </c>
+      <c r="G46">
+        <v>0.00064526913568377559</v>
+      </c>
+      <c r="H46">
+        <v>0.09395182002020605</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B47">
+        <v>0.067086849126502313</v>
+      </c>
+      <c r="C47">
+        <v>0.00012129924333736659</v>
+      </c>
+      <c r="D47">
+        <v>0.0032795835826090773</v>
+      </c>
+      <c r="E47">
+        <v>0.58601780701982686</v>
+      </c>
+      <c r="F47">
+        <v>0.34316780712395722</v>
+      </c>
+      <c r="G47">
+        <v>9.5497295471623809e-05</v>
+      </c>
+      <c r="H47">
+        <v>0.00023115660829558043</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B48">
+        <v>0.060613476505414231</v>
+      </c>
+      <c r="C48">
+        <v>0.00014116859445370189</v>
+      </c>
+      <c r="D48">
+        <v>0.0015923163169638667</v>
+      </c>
+      <c r="E48">
+        <v>0.36657501124308056</v>
+      </c>
+      <c r="F48">
+        <v>0.5697029280645598</v>
+      </c>
+      <c r="G48">
+        <v>0.0010908671664653208</v>
+      </c>
+      <c r="H48">
+        <v>0.00028423210906253389</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B49">
+        <v>0.026802821772166148</v>
+      </c>
+      <c r="C49">
+        <v>0.0021499926040904178</v>
+      </c>
+      <c r="D49">
+        <v>0.00022986984574982548</v>
+      </c>
+      <c r="E49">
+        <v>0.37447460342781308</v>
+      </c>
+      <c r="F49">
+        <v>0.59312876938806514</v>
+      </c>
+      <c r="G49">
+        <v>0.00012498377241245331</v>
+      </c>
+      <c r="H49">
+        <v>0.0030889591897030094</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B50">
+        <v>0.018401198928018066</v>
+      </c>
+      <c r="C50">
+        <v>0.0040199293168547293</v>
+      </c>
+      <c r="D50">
+        <v>0.00028994587228457335</v>
+      </c>
+      <c r="E50">
+        <v>0.2237310329074606</v>
+      </c>
+      <c r="F50">
+        <v>0.75197798625244927</v>
+      </c>
+      <c r="G50">
+        <v>0.00096821506070890288</v>
+      </c>
+      <c r="H50">
+        <v>0.00061169166222365117</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B51">
+        <v>0.024742999008022411</v>
+      </c>
+      <c r="C51">
+        <v>0.0029839661927438697</v>
+      </c>
+      <c r="D51">
+        <v>0.0021489532224057877</v>
+      </c>
+      <c r="E51">
+        <v>0.38661126610468516</v>
+      </c>
+      <c r="F51">
+        <v>0.58149733602513864</v>
+      </c>
+      <c r="G51">
+        <v>0.0019577040083706794</v>
+      </c>
+      <c r="H51">
+        <v>5.7775438633447084e-05</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B52">
+        <v>0.041277485404531258</v>
+      </c>
+      <c r="C52">
+        <v>9.2177404170881762e-05</v>
+      </c>
+      <c r="D52">
+        <v>0.00077865506095628576</v>
+      </c>
+      <c r="E52">
+        <v>0.43326911226583548</v>
+      </c>
+      <c r="F52">
+        <v>0.5203835327735763</v>
+      </c>
+      <c r="G52">
+        <v>0.0017204631324304952</v>
+      </c>
+      <c r="H52">
+        <v>0.0024785739584990735</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B53">
+        <v>0.016564967168205009</v>
+      </c>
+      <c r="C53">
+        <v>0.0003418929477633383</v>
+      </c>
+      <c r="D53">
+        <v>0.00028120014769016663</v>
+      </c>
+      <c r="E53">
+        <v>0.53802808285277814</v>
+      </c>
+      <c r="F53">
+        <v>0.43880577326314779</v>
+      </c>
+      <c r="G53">
+        <v>0.0022555528538576322</v>
+      </c>
+      <c r="H53">
+        <v>0.0037225307665578805</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B54">
+        <v>0.0043712178970243352</v>
+      </c>
+      <c r="C54">
+        <v>0.021033850690006076</v>
+      </c>
+      <c r="D54">
+        <v>0.00027426799687285788</v>
+      </c>
+      <c r="E54">
+        <v>0.37081529043147576</v>
+      </c>
+      <c r="F54">
+        <v>0.60213531249924857</v>
+      </c>
+      <c r="G54">
+        <v>0.0013465943188977116</v>
+      </c>
+      <c r="H54">
+        <v>2.3466166474764402e-05</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B55">
+        <v>0.0077640450503356183</v>
+      </c>
+      <c r="C55">
+        <v>0.0026279391390225033</v>
+      </c>
+      <c r="D55">
+        <v>5.8534682095824483e-05</v>
+      </c>
+      <c r="E55">
+        <v>0.40164233997484511</v>
+      </c>
+      <c r="F55">
+        <v>0.58661895164816868</v>
+      </c>
+      <c r="G55">
+        <v>0.0011002333021368656</v>
+      </c>
+      <c r="H55">
+        <v>0.0001879562033952964</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B56">
+        <v>0.025012249470521712</v>
+      </c>
+      <c r="C56">
+        <v>0.0013261416322048357</v>
+      </c>
+      <c r="D56">
+        <v>8.3252880207162659e-05</v>
+      </c>
+      <c r="E56">
+        <v>0.23922418734091572</v>
+      </c>
+      <c r="F56">
+        <v>0.72786085291445013</v>
+      </c>
+      <c r="G56">
+        <v>0.00053299540242874417</v>
+      </c>
+      <c r="H56">
+        <v>0.0059603203592715577</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B57">
+        <v>0.066563173371890438</v>
+      </c>
+      <c r="C57">
+        <v>0.00039945563850070641</v>
+      </c>
+      <c r="D57">
+        <v>0.00020730420833268154</v>
+      </c>
+      <c r="E57">
+        <v>0.27306955325071086</v>
+      </c>
+      <c r="F57">
+        <v>0.59670752998654897</v>
+      </c>
+      <c r="G57">
+        <v>0.0023116186457176314</v>
+      </c>
+      <c r="H57">
+        <v>0.060741364898298532</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B58">
+        <v>0.011854544593455318</v>
+      </c>
+      <c r="C58">
+        <v>0.00024031768787756148</v>
+      </c>
+      <c r="D58">
+        <v>1.4558684617963357e-05</v>
+      </c>
+      <c r="E58">
+        <v>0.2007918354385079</v>
+      </c>
+      <c r="F58">
+        <v>0.71271451760475757</v>
+      </c>
+      <c r="G58">
+        <v>0.0035074734306422871</v>
+      </c>
+      <c r="H58">
+        <v>0.070876752560141434</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B59">
+        <v>0.027756952069139262</v>
+      </c>
+      <c r="C59">
+        <v>0.00034490954801466003</v>
+      </c>
+      <c r="D59">
+        <v>0.045238025993987852</v>
+      </c>
+      <c r="E59">
+        <v>0.29795456778442181</v>
+      </c>
+      <c r="F59">
+        <v>0.31004598288252933</v>
+      </c>
+      <c r="G59">
+        <v>0.042155991750495753</v>
+      </c>
+      <c r="H59">
+        <v>0.2765035699714114</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B60">
+        <v>0.0043535321849856486</v>
+      </c>
+      <c r="C60">
+        <v>9.0352381774966626e-05</v>
+      </c>
+      <c r="D60">
+        <v>5.0972429785667991e-05</v>
+      </c>
+      <c r="E60">
+        <v>0.09683124742619377</v>
+      </c>
+      <c r="F60">
+        <v>0.15975404028274348</v>
+      </c>
+      <c r="G60">
+        <v>0.33408706242056907</v>
+      </c>
+      <c r="H60">
+        <v>0.4048327928739473</v>
+      </c>
+      <c r="I60">
+        <v>7</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B61">
+        <v>0.025591172312772342</v>
+      </c>
+      <c r="C61">
+        <v>7.5633059903132299e-05</v>
+      </c>
+      <c r="D61">
+        <v>7.9590717310251035e-05</v>
+      </c>
+      <c r="E61">
+        <v>0.19748171843339268</v>
+      </c>
+      <c r="F61">
+        <v>0.54300576197550599</v>
+      </c>
+      <c r="G61">
+        <v>0.11949904795057614</v>
+      </c>
+      <c r="H61">
+        <v>0.11426707555053951</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B62">
+        <v>0.023726730763494002</v>
+      </c>
+      <c r="C62">
+        <v>0.00010143625191501155</v>
+      </c>
+      <c r="D62">
+        <v>4.1797528402776153e-06</v>
+      </c>
+      <c r="E62">
+        <v>0.053497842537587027</v>
+      </c>
+      <c r="F62">
+        <v>0.86470940553460818</v>
+      </c>
+      <c r="G62">
+        <v>0.055770577719608715</v>
+      </c>
+      <c r="H62">
+        <v>0.0021898274399467545</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B63">
+        <v>0.025943571711989816</v>
+      </c>
+      <c r="C63">
+        <v>0.020826896676863181</v>
+      </c>
+      <c r="D63">
+        <v>0.00012887423391578145</v>
+      </c>
+      <c r="E63">
+        <v>0.30207194149443828</v>
+      </c>
+      <c r="F63">
+        <v>0.42597701265672422</v>
+      </c>
+      <c r="G63">
+        <v>0.061304494908603048</v>
+      </c>
+      <c r="H63">
+        <v>0.16374720831746575</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B64">
+        <v>0.029227237997902323</v>
+      </c>
+      <c r="C64">
+        <v>0.0014505216656569503</v>
+      </c>
+      <c r="D64">
+        <v>1.6754320485346942e-05</v>
+      </c>
+      <c r="E64">
+        <v>0.23822274764134491</v>
+      </c>
+      <c r="F64">
+        <v>0.51310291748466774</v>
+      </c>
+      <c r="G64">
+        <v>0.091827595677760415</v>
+      </c>
+      <c r="H64">
+        <v>0.12615222521218217</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B65">
+        <v>0.0022809492821118877</v>
+      </c>
+      <c r="C65">
+        <v>0.00026182135671591936</v>
+      </c>
+      <c r="D65">
+        <v>0.081182242448727959</v>
+      </c>
+      <c r="E65">
+        <v>0.14792755494945856</v>
+      </c>
+      <c r="F65">
+        <v>0.18446145163017041</v>
+      </c>
+      <c r="G65">
+        <v>0.08324100790486709</v>
+      </c>
+      <c r="H65">
+        <v>0.50064497242794814</v>
+      </c>
+      <c r="I65">
+        <v>7</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B66">
+        <v>0.021486898009634669</v>
+      </c>
+      <c r="C66">
+        <v>0.0012653397599590981</v>
+      </c>
+      <c r="D66">
+        <v>0.0041777011750938628</v>
+      </c>
+      <c r="E66">
+        <v>0.34749992529771923</v>
+      </c>
+      <c r="F66">
+        <v>0.36827340795699021</v>
+      </c>
+      <c r="G66">
+        <v>0.17425235856834723</v>
+      </c>
+      <c r="H66">
+        <v>0.083044369232255749</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B67">
+        <v>0.024083284974002552</v>
+      </c>
+      <c r="C67">
+        <v>0.0028599144699195038</v>
+      </c>
+      <c r="D67">
+        <v>9.0849998928167069e-05</v>
+      </c>
+      <c r="E67">
+        <v>0.15580354413097519</v>
+      </c>
+      <c r="F67">
+        <v>0.36616532734761437</v>
+      </c>
+      <c r="G67">
+        <v>0.17724034429384236</v>
+      </c>
+      <c r="H67">
+        <v>0.27375673478471774</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B68">
+        <v>0.013210916838098044</v>
+      </c>
+      <c r="C68">
+        <v>0.0016711258745655342</v>
+      </c>
+      <c r="D68">
+        <v>0.10666546791969156</v>
+      </c>
+      <c r="E68">
+        <v>0.28075306119921661</v>
+      </c>
+      <c r="F68">
+        <v>0.11143473859802173</v>
+      </c>
+      <c r="G68">
+        <v>0.19893946487396713</v>
+      </c>
+      <c r="H68">
+        <v>0.2873252246964394</v>
+      </c>
+      <c r="I68">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="B69">
+        <v>0.17225259576111487</v>
+      </c>
+      <c r="C69">
+        <v>4.1487874675693613e-05</v>
+      </c>
+      <c r="D69">
+        <v>7.9948578938771598e-05</v>
+      </c>
+      <c r="E69">
+        <v>0.19908603886846754</v>
+      </c>
+      <c r="F69">
+        <v>0.32080344340481476</v>
+      </c>
+      <c r="G69">
+        <v>0.075387594130685964</v>
+      </c>
+      <c r="H69">
+        <v>0.23234889138130235</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B70">
+        <v>0.15338531291101887</v>
+      </c>
+      <c r="C70">
+        <v>0.0022813607973070325</v>
+      </c>
+      <c r="D70">
+        <v>1.5457414996808739e-05</v>
+      </c>
+      <c r="E70">
+        <v>0.036937366115307076</v>
+      </c>
+      <c r="F70">
+        <v>0.50315642254560333</v>
+      </c>
+      <c r="G70">
+        <v>0.27899605072428035</v>
+      </c>
+      <c r="H70">
+        <v>0.025228029491486559</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B71">
+        <v>0.30267294515423271</v>
+      </c>
+      <c r="C71">
+        <v>2.4190491646372865e-06</v>
+      </c>
+      <c r="D71">
+        <v>2.9523601689203014e-05</v>
+      </c>
+      <c r="E71">
+        <v>0.036926671592342891</v>
+      </c>
+      <c r="F71">
+        <v>0.53624110530466218</v>
+      </c>
+      <c r="G71">
+        <v>0.11285875156582467</v>
+      </c>
+      <c r="H71">
+        <v>0.011268583732083592</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B72">
+        <v>0.015208359826815522</v>
+      </c>
+      <c r="C72">
+        <v>0.00039097018299769499</v>
+      </c>
+      <c r="D72">
+        <v>0.00018199941238414085</v>
+      </c>
+      <c r="E72">
+        <v>0.2798871569253194</v>
+      </c>
+      <c r="F72">
+        <v>0.70030589039933466</v>
+      </c>
+      <c r="G72">
+        <v>0.00024039735297830446</v>
+      </c>
+      <c r="H72">
+        <v>0.0037852259001701885</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B73">
+        <v>0.0070083968586200692</v>
+      </c>
+      <c r="C73">
+        <v>0.045422689673542939</v>
+      </c>
+      <c r="D73">
+        <v>0.00062951507538148196</v>
+      </c>
+      <c r="E73">
+        <v>0.34066400065382724</v>
+      </c>
+      <c r="F73">
+        <v>0.59146142315341999</v>
+      </c>
+      <c r="G73">
+        <v>0.014809373893060264</v>
+      </c>
+      <c r="H73">
+        <v>4.6006921478849227e-06</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="B74">
+        <v>0.0057647851331455186</v>
+      </c>
+      <c r="C74">
+        <v>0.0001680041874114649</v>
+      </c>
+      <c r="D74">
+        <v>7.8802912565227481e-05</v>
+      </c>
+      <c r="E74">
+        <v>0.33488890857138498</v>
+      </c>
+      <c r="F74">
+        <v>0.65293058334115928</v>
+      </c>
+      <c r="G74">
+        <v>0.0052779128661920478</v>
+      </c>
+      <c r="H74">
+        <v>0.000891002988141408</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="B75">
+        <v>0.008426802288954309</v>
+      </c>
+      <c r="C75">
+        <v>0.00021929418776655776</v>
+      </c>
+      <c r="D75">
+        <v>7.5489712196483884e-05</v>
+      </c>
+      <c r="E75">
+        <v>0.22698519362384745</v>
+      </c>
+      <c r="F75">
+        <v>0.75896562268786893</v>
+      </c>
+      <c r="G75">
+        <v>0.00077507188603850418</v>
+      </c>
+      <c r="H75">
+        <v>0.0045525256133277445</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B76">
+        <v>0.025053999035259355</v>
+      </c>
+      <c r="C76">
+        <v>0.0012846391942113167</v>
+      </c>
+      <c r="D76">
+        <v>0.0081399556459968991</v>
+      </c>
+      <c r="E76">
+        <v>0.43598453920982055</v>
+      </c>
+      <c r="F76">
+        <v>0.52573041884126881</v>
+      </c>
+      <c r="G76">
+        <v>0.0036210095488257189</v>
+      </c>
+      <c r="H76">
+        <v>0.00018543852461720922</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B77">
+        <v>0.028419985167190409</v>
+      </c>
+      <c r="C77">
+        <v>0.0001851731014967696</v>
+      </c>
+      <c r="D77">
+        <v>0.00057710768480113365</v>
+      </c>
+      <c r="E77">
+        <v>0.42411291917442379</v>
+      </c>
+      <c r="F77">
+        <v>0.54559100507796587</v>
+      </c>
+      <c r="G77">
+        <v>0.00010973612066951482</v>
+      </c>
+      <c r="H77">
+        <v>0.0010040736734527732</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B78">
+        <v>0.0093543878018520071</v>
+      </c>
+      <c r="C78">
+        <v>0.0001915043502908936</v>
+      </c>
+      <c r="D78">
+        <v>0.00014039249875750701</v>
+      </c>
+      <c r="E78">
+        <v>0.31467980442733318</v>
+      </c>
+      <c r="F78">
+        <v>0.66040231038050479</v>
+      </c>
+      <c r="G78">
+        <v>0.011305200276313973</v>
+      </c>
+      <c r="H78">
+        <v>0.0039264002649477487</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B79">
+        <v>0.029762229158620437</v>
+      </c>
+      <c r="C79">
+        <v>0.002136162712004099</v>
+      </c>
+      <c r="D79">
+        <v>0.00010762070600570362</v>
+      </c>
+      <c r="E79">
+        <v>0.27408640387617139</v>
+      </c>
+      <c r="F79">
+        <v>0.66904940825246006</v>
+      </c>
+      <c r="G79">
+        <v>0.0055791917636322536</v>
+      </c>
+      <c r="H79">
+        <v>0.019278983531105867</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B80">
+        <v>0.0047710526138569779</v>
+      </c>
+      <c r="C80">
+        <v>0.0052458457313851545</v>
+      </c>
+      <c r="D80">
+        <v>0.00011930156912162913</v>
+      </c>
+      <c r="E80">
+        <v>0.29035977268360358</v>
+      </c>
+      <c r="F80">
+        <v>0.65964921205197968</v>
+      </c>
+      <c r="G80">
+        <v>0.039798975353240167</v>
+      </c>
+      <c r="H80">
+        <v>5.58399968127638e-05</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="B81">
+        <v>0.004924121017654228</v>
+      </c>
+      <c r="C81">
+        <v>0.00019679589414965069</v>
+      </c>
+      <c r="D81">
+        <v>0.0011958048984294393</v>
+      </c>
+      <c r="E81">
+        <v>0.38907738499009692</v>
+      </c>
+      <c r="F81">
+        <v>0.60375596758813765</v>
+      </c>
+      <c r="G81">
+        <v>0.0008126248485364571</v>
+      </c>
+      <c r="H81">
+        <v>3.7300762995664234e-05</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B82">
+        <v>0.020843827721294599</v>
+      </c>
+      <c r="C82">
+        <v>0.0027000942807547533</v>
+      </c>
+      <c r="D82">
+        <v>1.1829199383617917e-05</v>
+      </c>
+      <c r="E82">
+        <v>0.13355388436962315</v>
+      </c>
+      <c r="F82">
+        <v>0.33753425557199274</v>
+      </c>
+      <c r="G82">
+        <v>0.36445605645562257</v>
+      </c>
+      <c r="H82">
+        <v>0.14090005240132855</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B83">
+        <v>0.0020782492414554822</v>
+      </c>
+      <c r="C83">
+        <v>6.8211193124012738e-06</v>
+      </c>
+      <c r="D83">
+        <v>3.2541669092275582e-06</v>
+      </c>
+      <c r="E83">
+        <v>0.086813971105602863</v>
+      </c>
+      <c r="F83">
+        <v>0.33274384434370502</v>
+      </c>
+      <c r="G83">
+        <v>0.56291266234046755</v>
+      </c>
+      <c r="H83">
+        <v>0.015441197682547567</v>
+      </c>
+      <c r="I83">
+        <v>6</v>
+      </c>
+      <c r="J83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B84">
+        <v>0.015880404063863103</v>
+      </c>
+      <c r="C84">
+        <v>0.00054482483133887032</v>
+      </c>
+      <c r="D84">
+        <v>7.287416998942081e-06</v>
+      </c>
+      <c r="E84">
+        <v>0.17131404060537928</v>
+      </c>
+      <c r="F84">
+        <v>0.80157345537064351</v>
+      </c>
+      <c r="G84">
+        <v>0.0036725638238937343</v>
+      </c>
+      <c r="H84">
+        <v>0.0070074238878825787</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+      <c r="J84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B85">
+        <v>0.0076065217341396412</v>
+      </c>
+      <c r="C85">
+        <v>0.00089131513938090249</v>
+      </c>
+      <c r="D85">
+        <v>2.5342057409667273e-05</v>
+      </c>
+      <c r="E85">
+        <v>0.31136042361839011</v>
+      </c>
+      <c r="F85">
+        <v>0.66551416940599117</v>
+      </c>
+      <c r="G85">
+        <v>0.0070879575269066943</v>
+      </c>
+      <c r="H85">
+        <v>0.0075142705177818027</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+      <c r="J85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B86">
+        <v>0.019811072265276227</v>
+      </c>
+      <c r="C86">
+        <v>0.0050355011913751089</v>
+      </c>
+      <c r="D86">
+        <v>0.0066731065403437869</v>
+      </c>
+      <c r="E86">
+        <v>0.3872459471063463</v>
+      </c>
+      <c r="F86">
+        <v>0.54598987681740951</v>
+      </c>
+      <c r="G86">
+        <v>0.010730081175350282</v>
+      </c>
+      <c r="H86">
+        <v>0.024514414903898801</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+      <c r="J86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B87">
+        <v>0.0093495038415410958</v>
+      </c>
+      <c r="C87">
+        <v>0.001688129196411848</v>
+      </c>
+      <c r="D87">
+        <v>5.7282297000390273e-06</v>
+      </c>
+      <c r="E87">
+        <v>0.067412963471085746</v>
+      </c>
+      <c r="F87">
+        <v>0.2250183523549541</v>
+      </c>
+      <c r="G87">
+        <v>0.62482001845491464</v>
+      </c>
+      <c r="H87">
+        <v>0.071705304451392574</v>
+      </c>
+      <c r="I87">
+        <v>6</v>
+      </c>
+      <c r="J87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B88">
+        <v>0.013876808623627113</v>
+      </c>
+      <c r="C88">
+        <v>0.00015225383216871795</v>
+      </c>
+      <c r="D88">
+        <v>2.9610333770125455e-08</v>
+      </c>
+      <c r="E88">
+        <v>0.0052927028785719268</v>
+      </c>
+      <c r="F88">
+        <v>0.00051526784354177433</v>
+      </c>
+      <c r="G88">
+        <v>0.9801545950438757</v>
+      </c>
+      <c r="H88">
+        <v>8.3421678809295228e-06</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+      <c r="J88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B89">
+        <v>0.010018800727326178</v>
+      </c>
+      <c r="C89">
+        <v>0.00020827258362683524</v>
+      </c>
+      <c r="D89">
+        <v>0.018540312712636502</v>
+      </c>
+      <c r="E89">
+        <v>0.21579864752613442</v>
+      </c>
+      <c r="F89">
+        <v>0.26709332322480972</v>
+      </c>
+      <c r="G89">
+        <v>0.05705464070440764</v>
+      </c>
+      <c r="H89">
+        <v>0.43128600252105859</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="J89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B90">
+        <v>0.0013963401445763217</v>
+      </c>
+      <c r="C90">
+        <v>3.8946917753925647e-05</v>
+      </c>
+      <c r="D90">
+        <v>6.9231893515429996e-07</v>
+      </c>
+      <c r="E90">
+        <v>0.013936325433116899</v>
+      </c>
+      <c r="F90">
+        <v>0.0099895103356134694</v>
+      </c>
+      <c r="G90">
+        <v>0.97453519472069072</v>
+      </c>
+      <c r="H90">
+        <v>0.00010299012931349134</v>
+      </c>
+      <c r="I90">
+        <v>6</v>
+      </c>
+      <c r="J90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B91">
+        <v>0.0021289064678839623</v>
+      </c>
+      <c r="C91">
+        <v>0.00018703638281876848</v>
+      </c>
+      <c r="D91">
+        <v>3.2627841684364022e-05</v>
+      </c>
+      <c r="E91">
+        <v>0.026274962689894207</v>
+      </c>
+      <c r="F91">
+        <v>0.017849362618197317</v>
+      </c>
+      <c r="G91">
+        <v>0.59750778365643087</v>
+      </c>
+      <c r="H91">
+        <v>0.35601932034309053</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+      <c r="J91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B92">
+        <v>0.055083349892673862</v>
+      </c>
+      <c r="C92">
+        <v>0.0013183021305415473</v>
+      </c>
+      <c r="D92">
+        <v>6.5405154605436473e-05</v>
+      </c>
+      <c r="E92">
+        <v>0.018603440521576087</v>
+      </c>
+      <c r="F92">
+        <v>0.14712737072797849</v>
+      </c>
+      <c r="G92">
+        <v>0.70103873593014854</v>
+      </c>
+      <c r="H92">
+        <v>0.076763395642475918</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+      <c r="J92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B93">
+        <v>0.0034541824841682503</v>
+      </c>
+      <c r="C93">
+        <v>8.9176537350433299e-07</v>
+      </c>
+      <c r="D93">
+        <v>8.9376771074126864e-05</v>
+      </c>
+      <c r="E93">
+        <v>0.018551630314411937</v>
+      </c>
+      <c r="F93">
+        <v>0.14161305247487407</v>
+      </c>
+      <c r="G93">
+        <v>0.83617985171704645</v>
+      </c>
+      <c r="H93">
+        <v>0.00011101447305171925</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+      <c r="J93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B94">
+        <v>0.00164423116663003</v>
+      </c>
+      <c r="C94">
+        <v>1.219384989688877e-05</v>
+      </c>
+      <c r="D94">
+        <v>6.7346740263151705e-06</v>
+      </c>
+      <c r="E94">
+        <v>0.02862043415943678</v>
+      </c>
+      <c r="F94">
+        <v>0.019349243673894845</v>
+      </c>
+      <c r="G94">
+        <v>0.94992034749521481</v>
+      </c>
+      <c r="H94">
+        <v>0.00044681498090042905</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+      <c r="J94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B95">
+        <v>0.0028969978858802521</v>
+      </c>
+      <c r="C95">
+        <v>9.3815070940173205e-05</v>
+      </c>
+      <c r="D95">
+        <v>1.3463774080925301e-05</v>
+      </c>
+      <c r="E95">
+        <v>0.016634868362941209</v>
+      </c>
+      <c r="F95">
+        <v>0.09401768260202964</v>
+      </c>
+      <c r="G95">
+        <v>0.88564371477391435</v>
+      </c>
+      <c r="H95">
+        <v>0.00069945753021342168</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+      <c r="J95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B96">
+        <v>0.0028835034323512359</v>
+      </c>
+      <c r="C96">
+        <v>3.0925472487041536e-05</v>
+      </c>
+      <c r="D96">
+        <v>1.3125238641295143e-05</v>
+      </c>
+      <c r="E96">
+        <v>0.027841254835641843</v>
+      </c>
+      <c r="F96">
+        <v>0.02388084468572671</v>
+      </c>
+      <c r="G96">
+        <v>0.94411567855360923</v>
+      </c>
+      <c r="H96">
+        <v>0.0012346677815427234</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+      <c r="J96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B97">
+        <v>0.0011200407942079558</v>
+      </c>
+      <c r="C97">
+        <v>4.3784381901126708e-06</v>
+      </c>
+      <c r="D97">
+        <v>3.5779523360014768e-08</v>
+      </c>
+      <c r="E97">
+        <v>0.01315607337019763</v>
+      </c>
+      <c r="F97">
+        <v>0.022580518381145668</v>
+      </c>
+      <c r="G97">
+        <v>0.96285786178697119</v>
+      </c>
+      <c r="H97">
+        <v>0.00028109144976405811</v>
+      </c>
+      <c r="I97">
+        <v>6</v>
+      </c>
+      <c r="J97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B98">
+        <v>0.011209851367079573</v>
+      </c>
+      <c r="C98">
+        <v>0.00025832954226167839</v>
+      </c>
+      <c r="D98">
+        <v>3.0037367701542084e-05</v>
+      </c>
+      <c r="E98">
+        <v>0.061594311995800233</v>
+      </c>
+      <c r="F98">
+        <v>0.060477512147324004</v>
+      </c>
+      <c r="G98">
+        <v>0.86401018478824609</v>
+      </c>
+      <c r="H98">
+        <v>0.0024197727915867702</v>
+      </c>
+      <c r="I98">
+        <v>6</v>
+      </c>
+      <c r="J98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B99">
+        <v>0.001594756778069435</v>
+      </c>
+      <c r="C99">
+        <v>4.6304054637212109e-05</v>
+      </c>
+      <c r="D99">
+        <v>1.8380906228752848e-06</v>
+      </c>
+      <c r="E99">
+        <v>0.020172759219865135</v>
+      </c>
+      <c r="F99">
+        <v>0.030573219589855361</v>
+      </c>
+      <c r="G99">
+        <v>0.94683621791110317</v>
+      </c>
+      <c r="H99">
+        <v>0.00077490435584674506</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B100">
+        <v>0.0064378061836125721</v>
+      </c>
+      <c r="C100">
+        <v>0.00058184405401138291</v>
+      </c>
+      <c r="D100">
+        <v>1.2346128133157481e-05</v>
+      </c>
+      <c r="E100">
+        <v>0.058003684443802508</v>
+      </c>
+      <c r="F100">
+        <v>0.023637775933901456</v>
+      </c>
+      <c r="G100">
+        <v>0.90686407644165679</v>
+      </c>
+      <c r="H100">
+        <v>0.0044624668148821166</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+      <c r="J100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B101">
+        <v>0.001906255364032711</v>
+      </c>
+      <c r="C101">
+        <v>0.025628515333436998</v>
+      </c>
+      <c r="D101">
+        <v>4.8518403965435483e-05</v>
+      </c>
+      <c r="E101">
+        <v>0.039230687815057216</v>
+      </c>
+      <c r="F101">
+        <v>0.096113223578674398</v>
+      </c>
+      <c r="G101">
+        <v>0.83663770605044518</v>
+      </c>
+      <c r="H101">
+        <v>0.00043509345438812744</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="J101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="B102">
+        <v>0.0031644388529769594</v>
+      </c>
+      <c r="C102">
+        <v>0.0026666625451551109</v>
+      </c>
+      <c r="D102">
+        <v>2.6212131706239979e-05</v>
+      </c>
+      <c r="E102">
+        <v>0.048790657343808864</v>
+      </c>
+      <c r="F102">
+        <v>0.036476542438908931</v>
+      </c>
+      <c r="G102">
+        <v>0.90842593724529808</v>
+      </c>
+      <c r="H102">
+        <v>0.00044954944214577088</v>
+      </c>
+      <c r="I102">
+        <v>6</v>
+      </c>
+      <c r="J102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B103">
+        <v>0.0021079912827412723</v>
+      </c>
+      <c r="C103">
+        <v>0.00020384607089267445</v>
+      </c>
+      <c r="D103">
+        <v>9.5179019053392454e-05</v>
+      </c>
+      <c r="E103">
+        <v>0.044582590305045931</v>
+      </c>
+      <c r="F103">
+        <v>0.05792456617405662</v>
+      </c>
+      <c r="G103">
+        <v>0.89340608170364433</v>
+      </c>
+      <c r="H103">
+        <v>0.0016797454445657517</v>
+      </c>
+      <c r="I103">
+        <v>6</v>
+      </c>
+      <c r="J103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B104">
+        <v>0.00435615824875084</v>
+      </c>
+      <c r="C104">
+        <v>2.8638408854851106e-06</v>
+      </c>
+      <c r="D104">
+        <v>1.8935708907093395e-05</v>
+      </c>
+      <c r="E104">
+        <v>0.030813071449758655</v>
+      </c>
+      <c r="F104">
+        <v>0.020024091479229393</v>
+      </c>
+      <c r="G104">
+        <v>0.94413553976897824</v>
+      </c>
+      <c r="H104">
+        <v>0.00064933950349036038</v>
+      </c>
+      <c r="I104">
+        <v>6</v>
+      </c>
+      <c r="J104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B105">
+        <v>0.0016857169682365201</v>
+      </c>
+      <c r="C105">
+        <v>1.5358025313200989e-05</v>
+      </c>
+      <c r="D105">
+        <v>3.4220739761714242e-05</v>
+      </c>
+      <c r="E105">
+        <v>0.061239855433215522</v>
+      </c>
+      <c r="F105">
+        <v>0.14383308667903055</v>
+      </c>
+      <c r="G105">
+        <v>0.78842956318318214</v>
+      </c>
+      <c r="H105">
+        <v>0.0047621989712603027</v>
+      </c>
+      <c r="I105">
+        <v>6</v>
+      </c>
+      <c r="J105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B106">
+        <v>0.0020151790468959509</v>
+      </c>
+      <c r="C106">
+        <v>4.3104225934636274e-05</v>
+      </c>
+      <c r="D106">
+        <v>3.7036347374990113e-07</v>
+      </c>
+      <c r="E106">
+        <v>0.020224474636867957</v>
+      </c>
+      <c r="F106">
+        <v>0.052586280597606519</v>
+      </c>
+      <c r="G106">
+        <v>0.9107484324473073</v>
+      </c>
+      <c r="H106">
+        <v>0.014382158681914028</v>
+      </c>
+      <c r="I106">
+        <v>6</v>
+      </c>
+      <c r="J106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B107">
+        <v>0.0064759686007695941</v>
+      </c>
+      <c r="C107">
+        <v>0.0013739413957182451</v>
+      </c>
+      <c r="D107">
+        <v>2.955441568473077e-07</v>
+      </c>
+      <c r="E107">
+        <v>0.015043142188499217</v>
+      </c>
+      <c r="F107">
+        <v>0.031290822816416562</v>
+      </c>
+      <c r="G107">
+        <v>0.94495395318954745</v>
+      </c>
+      <c r="H107">
+        <v>0.00086187626489213148</v>
+      </c>
+      <c r="I107">
+        <v>6</v>
+      </c>
+      <c r="J107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="B108">
+        <v>0.0016980646703826285</v>
+      </c>
+      <c r="C108">
+        <v>0.00072418012436434634</v>
+      </c>
+      <c r="D108">
+        <v>5.413026165862994e-06</v>
+      </c>
+      <c r="E108">
+        <v>0.029365518126220565</v>
+      </c>
+      <c r="F108">
+        <v>0.025762386551320491</v>
+      </c>
+      <c r="G108">
+        <v>0.93387840031596059</v>
+      </c>
+      <c r="H108">
+        <v>0.0085660371855855837</v>
+      </c>
+      <c r="I108">
+        <v>6</v>
+      </c>
+      <c r="J108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B109">
+        <v>0.073074640581054784</v>
+      </c>
+      <c r="C109">
+        <v>0.00082955480442758328</v>
+      </c>
+      <c r="D109">
+        <v>0.00018718856606190419</v>
+      </c>
+      <c r="E109">
+        <v>0.10778869229941772</v>
+      </c>
+      <c r="F109">
+        <v>0.010355352465735388</v>
+      </c>
+      <c r="G109">
+        <v>0.22418745178297814</v>
+      </c>
+      <c r="H109">
+        <v>0.58357711950032454</v>
+      </c>
+      <c r="I109">
+        <v>7</v>
+      </c>
+      <c r="J109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B110">
+        <v>0.0035449113503793839</v>
+      </c>
+      <c r="C110">
+        <v>0.00027942193595304371</v>
+      </c>
+      <c r="D110">
+        <v>6.4541389521110782e-07</v>
+      </c>
+      <c r="E110">
+        <v>0.026096194278544132</v>
+      </c>
+      <c r="F110">
+        <v>0.061712219045692636</v>
+      </c>
+      <c r="G110">
+        <v>0.0060980731200263065</v>
+      </c>
+      <c r="H110">
+        <v>0.90226853485550929</v>
+      </c>
+      <c r="I110">
+        <v>7</v>
+      </c>
+      <c r="J110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="B111">
+        <v>0.0086085866961842401</v>
+      </c>
+      <c r="C111">
+        <v>0.072747726461232148</v>
+      </c>
+      <c r="D111">
+        <v>2.3198251900309558e-05</v>
+      </c>
+      <c r="E111">
+        <v>0.095298053912926964</v>
+      </c>
+      <c r="F111">
+        <v>0.17612598500194857</v>
+      </c>
+      <c r="G111">
+        <v>0.13387498532645292</v>
+      </c>
+      <c r="H111">
+        <v>0.51332146434935477</v>
+      </c>
+      <c r="I111">
+        <v>7</v>
+      </c>
+      <c r="J111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B112">
+        <v>0.0077924298835131524</v>
+      </c>
+      <c r="C112">
+        <v>0.0074327636913408181</v>
+      </c>
+      <c r="D112">
+        <v>3.0849958075613663e-06</v>
+      </c>
+      <c r="E112">
+        <v>0.036511329708478868</v>
+      </c>
+      <c r="F112">
+        <v>0.035238864899897492</v>
+      </c>
+      <c r="G112">
+        <v>0.0021239752771136</v>
+      </c>
+      <c r="H112">
+        <v>0.91089755154384844</v>
+      </c>
+      <c r="I112">
+        <v>7</v>
+      </c>
+      <c r="J112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B113">
+        <v>0.0027737376948863347</v>
+      </c>
+      <c r="C113">
+        <v>0.00028162148763963317</v>
+      </c>
+      <c r="D113">
+        <v>1.5343026421550499e-06</v>
+      </c>
+      <c r="E113">
+        <v>0.030995982474738212</v>
+      </c>
+      <c r="F113">
+        <v>0.063914998146292978</v>
+      </c>
+      <c r="G113">
+        <v>0.020974016844371716</v>
+      </c>
+      <c r="H113">
+        <v>0.88105810904942894</v>
+      </c>
+      <c r="I113">
+        <v>7</v>
+      </c>
+      <c r="J113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B114">
+        <v>0.0045431492261896857</v>
+      </c>
+      <c r="C114">
+        <v>0.00034235466997708971</v>
+      </c>
+      <c r="D114">
+        <v>9.5102689961540821e-06</v>
+      </c>
+      <c r="E114">
+        <v>0.058384396627140352</v>
+      </c>
+      <c r="F114">
+        <v>0.17031330701881914</v>
+      </c>
+      <c r="G114">
+        <v>0.0081987572804281105</v>
+      </c>
+      <c r="H114">
+        <v>0.75820852490844937</v>
+      </c>
+      <c r="I114">
+        <v>7</v>
+      </c>
+      <c r="J114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B115">
+        <v>0.0023085328252459951</v>
+      </c>
+      <c r="C115">
+        <v>0.00015295514524473424</v>
+      </c>
+      <c r="D115">
+        <v>0.00027206102294670192</v>
+      </c>
+      <c r="E115">
+        <v>0.076200602447090621</v>
+      </c>
+      <c r="F115">
+        <v>0.1682303929967853</v>
+      </c>
+      <c r="G115">
+        <v>0.0032473419097707691</v>
+      </c>
+      <c r="H115">
+        <v>0.74958811365291589</v>
+      </c>
+      <c r="I115">
+        <v>7</v>
+      </c>
+      <c r="J115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B116">
+        <v>0.0032909605915454718</v>
+      </c>
+      <c r="C116">
+        <v>0.00043806978849419466</v>
+      </c>
+      <c r="D116">
+        <v>8.8784332742708062e-07</v>
+      </c>
+      <c r="E116">
+        <v>0.024344994711805831</v>
+      </c>
+      <c r="F116">
+        <v>0.028655799999035881</v>
+      </c>
+      <c r="G116">
+        <v>0.0050032590887986459</v>
+      </c>
+      <c r="H116">
+        <v>0.93826602797699254</v>
+      </c>
+      <c r="I116">
+        <v>7</v>
+      </c>
+      <c r="J116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B117">
+        <v>0.014351333532493456</v>
+      </c>
+      <c r="C117">
+        <v>0.0008368825679683561</v>
+      </c>
+      <c r="D117">
+        <v>2.7950095551804425e-06</v>
+      </c>
+      <c r="E117">
+        <v>0.03211791194306992</v>
+      </c>
+      <c r="F117">
+        <v>0.031787306143709088</v>
+      </c>
+      <c r="G117">
+        <v>0.0024433250853954074</v>
+      </c>
+      <c r="H117">
+        <v>0.9184604457178086</v>
+      </c>
+      <c r="I117">
+        <v>7</v>
+      </c>
+      <c r="J117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="B118">
+        <v>0.0060079125066144013</v>
+      </c>
+      <c r="C118">
+        <v>0.0022485261895141993</v>
+      </c>
+      <c r="D118">
+        <v>6.0376626646118738e-07</v>
+      </c>
+      <c r="E118">
+        <v>0.027540981242972013</v>
+      </c>
+      <c r="F118">
+        <v>0.014747722057143649</v>
+      </c>
+      <c r="G118">
+        <v>0.021229605860724053</v>
+      </c>
+      <c r="H118">
+        <v>0.92822464837676522</v>
+      </c>
+      <c r="I118">
+        <v>7</v>
+      </c>
+      <c r="J118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B119">
+        <v>0.001952630057585059</v>
+      </c>
+      <c r="C119">
+        <v>0.00010258940482084117</v>
+      </c>
+      <c r="D119">
+        <v>7.914204293229937e-06</v>
+      </c>
+      <c r="E119">
+        <v>0.031442537279162922</v>
+      </c>
+      <c r="F119">
+        <v>0.15096301072121318</v>
+      </c>
+      <c r="G119">
+        <v>0.0090045642878135261</v>
+      </c>
+      <c r="H119">
+        <v>0.8065267540451112</v>
+      </c>
+      <c r="I119">
+        <v>7</v>
+      </c>
+      <c r="J119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B120">
+        <v>0.0028444580005316383</v>
+      </c>
+      <c r="C120">
+        <v>0.00055302083921495956</v>
+      </c>
+      <c r="D120">
+        <v>1.0451621557099686e-06</v>
+      </c>
+      <c r="E120">
+        <v>0.009455804942911393</v>
+      </c>
+      <c r="F120">
+        <v>0.035703942616376431</v>
+      </c>
+      <c r="G120">
+        <v>0.10650847364779767</v>
+      </c>
+      <c r="H120">
+        <v>0.84493325479101222</v>
+      </c>
+      <c r="I120">
+        <v>7</v>
+      </c>
+      <c r="J120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B121">
+        <v>0.0025941057712341726</v>
+      </c>
+      <c r="C121">
+        <v>0.0025706536692408619</v>
+      </c>
+      <c r="D121">
+        <v>4.4915803875753306e-06</v>
+      </c>
+      <c r="E121">
+        <v>0.039927037773906736</v>
+      </c>
+      <c r="F121">
+        <v>0.0047829360108763248</v>
+      </c>
+      <c r="G121">
+        <v>0.0070126476703109356</v>
+      </c>
+      <c r="H121">
+        <v>0.94310812752404338</v>
+      </c>
+      <c r="I121">
+        <v>7</v>
+      </c>
+      <c r="J121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="B122">
+        <v>0.0045979314232250188</v>
+      </c>
+      <c r="C122">
+        <v>0.00031570252331329787</v>
+      </c>
+      <c r="D122">
+        <v>2.5099078251894732e-05</v>
+      </c>
+      <c r="E122">
+        <v>0.087374368417127715</v>
+      </c>
+      <c r="F122">
+        <v>0.05432513566197885</v>
+      </c>
+      <c r="G122">
+        <v>0.10115961284758447</v>
+      </c>
+      <c r="H122">
+        <v>0.75220215004851876</v>
+      </c>
+      <c r="I122">
+        <v>7</v>
+      </c>
+      <c r="J122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B123">
+        <v>0.016857613235101269</v>
+      </c>
+      <c r="C123">
+        <v>0.11904048296030027</v>
+      </c>
+      <c r="D123">
+        <v>3.6125162041474772e-05</v>
+      </c>
+      <c r="E123">
+        <v>0.17633931831444014</v>
+      </c>
+      <c r="F123">
+        <v>0.32209598123022237</v>
+      </c>
+      <c r="G123">
+        <v>0.0030586157520881086</v>
+      </c>
+      <c r="H123">
+        <v>0.36257186334580643</v>
+      </c>
+      <c r="I123">
+        <v>7</v>
+      </c>
+      <c r="J123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B124">
+        <v>0.0046923819657290746</v>
+      </c>
+      <c r="C124">
+        <v>0.0012437582381463149</v>
+      </c>
+      <c r="D124">
+        <v>1.7823686606541632e-06</v>
+      </c>
+      <c r="E124">
+        <v>0.02830322903478635</v>
+      </c>
+      <c r="F124">
+        <v>0.0027507877472073331</v>
+      </c>
+      <c r="G124">
+        <v>0.031908215592675634</v>
+      </c>
+      <c r="H124">
+        <v>0.93109984505279475</v>
+      </c>
+      <c r="I124">
+        <v>7</v>
+      </c>
+      <c r="J124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B125">
+        <v>0.0018486182121779161</v>
+      </c>
+      <c r="C125">
+        <v>0.0001335649308626338</v>
+      </c>
+      <c r="D125">
+        <v>3.7873082044597287e-05</v>
+      </c>
+      <c r="E125">
+        <v>0.024896156438272248</v>
+      </c>
+      <c r="F125">
+        <v>0.030064451624628234</v>
+      </c>
+      <c r="G125">
+        <v>0.0061520008205099416</v>
+      </c>
+      <c r="H125">
+        <v>0.93686733489150442</v>
+      </c>
+      <c r="I125">
+        <v>7</v>
+      </c>
+      <c r="J125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="B126">
+        <v>0.00066322772256590962</v>
+      </c>
+      <c r="C126">
+        <v>2.4475050560466311e-05</v>
+      </c>
+      <c r="D126">
+        <v>0.0015107198876175587</v>
+      </c>
+      <c r="E126">
+        <v>0.10046031557451388</v>
+      </c>
+      <c r="F126">
+        <v>0.010142374311216149</v>
+      </c>
+      <c r="G126">
+        <v>0.0044496639219901235</v>
+      </c>
+      <c r="H126">
+        <v>0.88274922353153584</v>
+      </c>
+      <c r="I126">
+        <v>7</v>
+      </c>
+      <c r="J126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B127">
+        <v>0.0035423685804876828</v>
+      </c>
+      <c r="C127">
+        <v>0.00071208927108513617</v>
+      </c>
+      <c r="D127">
+        <v>1.8888242918025154e-06</v>
+      </c>
+      <c r="E127">
+        <v>0.023541635075547775</v>
+      </c>
+      <c r="F127">
+        <v>0.069959510732937824</v>
+      </c>
+      <c r="G127">
+        <v>0.05157462705728573</v>
+      </c>
+      <c r="H127">
+        <v>0.85066788045836406</v>
+      </c>
+      <c r="I127">
+        <v>7</v>
+      </c>
+      <c r="J127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="B128">
+        <v>0.0025745955679201383</v>
+      </c>
+      <c r="C128">
+        <v>0.0061133719184030162</v>
+      </c>
+      <c r="D128">
+        <v>4.8945712454035763e-05</v>
+      </c>
+      <c r="E128">
+        <v>0.046040324783624902</v>
+      </c>
+      <c r="F128">
+        <v>0.001227563779118831</v>
+      </c>
+      <c r="G128">
+        <v>0.0283841449313929</v>
+      </c>
+      <c r="H128">
+        <v>0.91561105330708625</v>
+      </c>
+      <c r="I128">
+        <v>7</v>
+      </c>
+      <c r="J128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B129">
+        <v>0.0012782350084939891</v>
+      </c>
+      <c r="C129">
+        <v>0.0017402795966357661</v>
+      </c>
+      <c r="D129">
+        <v>0.0012926375704849829</v>
+      </c>
+      <c r="E129">
+        <v>0.01280003529005551</v>
+      </c>
+      <c r="F129">
+        <v>0.017114628070831292</v>
+      </c>
+      <c r="G129">
+        <v>0.0090380346939386621</v>
+      </c>
+      <c r="H129">
+        <v>0.95673614976955978</v>
+      </c>
+      <c r="I129">
+        <v>7</v>
+      </c>
+      <c r="J129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B130">
+        <v>0.0045044705582362272</v>
+      </c>
+      <c r="C130">
+        <v>0.0039762152568112883</v>
+      </c>
+      <c r="D130">
+        <v>8.4951194632030399e-06</v>
+      </c>
+      <c r="E130">
+        <v>0.013333617968206765</v>
+      </c>
+      <c r="F130">
+        <v>0.0095377948026374986</v>
+      </c>
+      <c r="G130">
+        <v>0.031443512154081206</v>
+      </c>
+      <c r="H130">
+        <v>0.93719589414056381</v>
+      </c>
+      <c r="I130">
+        <v>7</v>
+      </c>
+      <c r="J130">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>